--- a/database/httpsokopress.xlsx
+++ b/database/httpsokopress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6269,6 +6269,422 @@
       </c>
       <c r="B497" t="inlineStr"/>
     </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://oko.press/autor/anna-mikulska/</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Anna Mikulska</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://oko.press/autor/bartosz-jozefiak/</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Bartosz Józefiak</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://oko.press/autor/michal-danielewski/</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Michał Danielewski</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://oko.press/czarnek-grozi-trzaskowskiemu-i-dulkiewicz-ale-chce-przestraszyc-kogos-innego/</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://oko.press/czarnek-o-hit-wiedza-o-spoleczenstwie-nie-bedzie-wyrugowana-rzucilismy-okiem-na-podstawe-programowa-i/</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://oko.press/dlaczego-pis-przegral-z-epidemia-kaczynski-ma-pretensje-do-sedziow/</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://oko.press/instytucje/wiadomosci-tvp</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Wiadomości" TVP </t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://oko.press/jak-dyskutowac-o-polityce-w-swieta-i-miec-racje/</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://oko.press/jak-mala-grupa-aktywistow-lgbt-wygrala-w-sadzie-z-ordo-iuris-i-homofobicznym-samorzadem/</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Jak mała grupa aktywistów LGBT wygrała w sądzie z Ordo Iuris i homofobicznym samorządem</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://oko.press/jak-pis-na-zlosc-niemcom-odmraza-polskim-obywatelom-uszy/</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://oko.press/jaroslaw-nic-nie-moge-kaczynski/</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">span2/spanJarosław „Nic nie mogę” Kaczyński. Prezes PiS w najnowszym wywiadzie to polityk całkowicie bezradny </t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://oko.press/juszczyszyn-po-4-godzinnym-karnawale-praworzadnosci-jestem-pelen-wigoru-do-dalszej-walki/</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://oko.press/ksiadz-dymer-na-swoje-inicjatywy-dostal-od-panstwa-11-mln-zl-pomogli-politycy-pis-moj-tekst-roku/</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://oko.press/kto-zabil-sw-mikolaja-w-polskim-lesie-historia-pewnego-rysunku/</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://oko.press/leczymy-uchodzcow-kryzys-humanitarny-na-granicy-oczami-pomagajacych-medykow-raport/</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>„Leczymy uchodźców” – kryzys humanitarny na granicy oczami pomagających medyków [RAPORT]</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://oko.press/malgorzata-manowska-blokuje-wykonanie-wyroku-tsue-zawiadomienie-do-ke/</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://oko.press/mam-bezwodzie-boje-sie-ze-umre-i-zostawie-dzieci-szpitale-odmawiaja-przyjecia-bo-plod-sie-rusza/</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://oko.press/mamo-widac-mnie-zona-2021-premiera-filmu/</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://oko.press/mamy-transplciowych-dzieci-chcialabym-podlaczyc-corke-do-maszyny-by-miec-pewnosc-ze-oddycha-jest-moj-tekst-roku/</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://oko.press/matki-sa-tylko-dwie/</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://oko.press/miliony-od-ziobry-na-medialne-imperium-drugiego-rydzyka-moj-tekst-roku/</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://oko.press/muzeum-rydzyka-drozsze-34-mln/</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>NEWS OKO.press. Muzeum Rydzyka droższe o ponad 34 mln zł. Państwo dołoży kolejną dotację</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://oko.press/opowiesc-gwiazdkowa-polska-policja-sciga-za-osiem-gwiazdek/</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">span4/spanOpowieść gwiazdkowa, czyli jak polska policja ściga za ***** ***  </t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://oko.press/prawica-na-widok-jej-plakatow-odchodzi-od-zmyslow-ola-jasionowska-zdradza-nam-czy-liczyla-gwiazdy/</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://oko.press/premiera-4-odcinka-buntu-kwiatow/</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://oko.press/prywatnosc-wiceministry-semeniuk-na-pstrym-pegazie-jezdzi/</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://oko.press/represje-wobec-sedziego-krygielskiego-za-przywrocenie-juszczyszyna-do-pracy/</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://oko.press/rpo-skierowal-wniosek-do-tk-przylebskiej-inaczej-niz-w-czasach-bodnara/</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://oko.press/tysiace-rodzin-szuka-ratunku-w-edukacji-domowej/</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">span3/span“Na granicy zniechęcenia i wymiotów” – tysiące rodzin szuka ratunku w edukacji domowej </t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://oko.press/wasik-zawiadamia-prokurature-ochojska/</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://oko.press/od-1-stycznia-surowe-kary-dla-piratow-drogowych/</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://oko.press/wiadomosci-tvp-szwecja-nieprawda/</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://oko.press/wietnamczycy-na-polskim-szlaku/</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Powiedz panu Hienowi, że w Polsce już nic nie ma, zimą można umrzeć. Wietnamczycy na polskim szlaku</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://oko.press/wypowiedzi/tvp-o-oze/</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Szwecja. Silnie rozwinięta energetyka wiatrowa sprawdza się, kiedy wiatr silny, ale kiedy nie wieje, a na przykład zimą zużycie prądu rośnie, Szwecja energię importuje z Polski.</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://oko.press/zeby-nie-patrzyly-tylko-na-to-co-dzieje-sie-za-oknem-dzieci-ze-strefy/</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsokopress.xlsx
+++ b/database/httpsokopress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6685,6 +6685,402 @@
         </is>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://oko.press/1procent/</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Przekaż 1% podatku</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://oko.press/8-zl-za-litr-benzyny-bardzo-mozliwe-nikt-nie-chce-rosyjskiej-ropy-czy-uratuje-nas-iranska/</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>8 zł za litr benzyny? Bardzo możliwe. Nikt nie chce rosyjskiej ropy – czy uratuje nas irańska?</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://oko.press/bojownicy-kopia-okopy-czekamy-na-gosci-prezenty-juz-mamy-ukrainska-duma-obroncow/</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Bojownicy kopią okopy. „Czekamy na gości. Prezenty już mamy” [UKRAIŃSKA DUMA OBROŃCÓW]</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://oko.press/bracia-ukraincy-bedziemy-walczyc-z-wami-o-demokratyczna-ukraine-apel-bialorusinow-w-polsce/</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Bracia Ukraińcy, będziemy walczyć z Wami o demokratyczną Ukrainę. Apel Białorusinów w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://oko.press/bruksela-proponuje-wegiel-zamiast-rosyjskiego-gazu/</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Jak odejść od rosyjskiego gazu? Bruksela proponuje Polsce energetyczny handel</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://oko.press/byly-szef-kontrwywiadu-putin-przekroczyl-margines-ktory-wyznacza-bezpieczenstwo-tyranow/</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Były szef kontrwywiadu: Putin przekroczył margines, który wyznacza bezpieczeństwo tyranów</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://oko.press/caritas-nieruchomosci-rybaki-skarbowka-turysci/</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Caritas dostała ośrodek na cele charytatywne, ale go wynajmuje. Eksperci: powinna go zwrócić</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://oko.press/czy-ukraina-dolaczy-do-ue/</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Czy Ukraina dołączy do UE?</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://oko.press/debunking/plyn-lugola/</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Warto mieć w apteczce płyn Lugola na wypadek zbombardowania elektrowni jądrowej w Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://oko.press/embargo-na-gaz-rope-i-wegiel-zdruzgotaloby-rezim-putina-a-czy-zachod-dalby-rade-analiza/</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Embargo na gaz, ropę i węgiel zdruzgotałoby reżim Putina. A czy Zachód dałby radę? [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://oko.press/goworit-moskwa-gdyby-nie-terror-zelenskiego-ludnosc-ukrainy-ucieklaby-korytarzami-do-rosji/</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>GOWORIT MOSKWA. Gdyby nie terror Zełenskiego, ludność Ukrainy uciekłaby korytarzami do Rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://oko.press/instytut-pileckiego-dotacje/</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Zabytkowy kompleks w Szwajcarii za 120 mln zł dla kontrowersyjnego instytutu [UJAWNIAMY]</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://oko.press/jak-pomoc-ukrainie-gdzie-szukac-pomocy-nowa-lista/</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Jak pomóc Ukrainie? Gdzie szukać pomocy? [NOWA LISTA i MAPA POTRZEB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://oko.press/kijow-charkow-i-cherson-pod-ostrzalem-w-przemyslu-prawicowe-bojowki-dzien-7-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Kijów, Charków i Chersoń pod ostrzałem. Mieszkańcy przygotowują się do obrony [DZIEŃ 7. NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://oko.press/kowalczyk-swiatlo-zycie-oaza-dotacje/</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Oaza wicepremiera Kowalczyka. 23 mln złotych dla katolickiego Ruchu Światło-Życie [TYLKO U NAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://oko.press/maria-ratuje-trzech-synow-i-opuszcza-rodzinna-wies-wierze-ze-wkrotce-wrocimy/</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Maria ratuje trzech synów i opuszcza rodzinną wieś. „Wierzę, że wkrótce wrócimy”</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://oko.press/mariupol-oblezony-zelenski-nato-daje-zielone-swiatlo-dla-bombardowan-dzien-10-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Putin: walczymy o przyszłość. Aerofłot wstrzymuje zagraniczne loty [DZIEŃ 10. NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://oko.press/najwieksza-elektrownia-jadrowa-w-europie-plonela-po-rosyjskim-ostrzale-bac-sie-wyjasniamy/</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Największa elektrownia jądrowa w Europie płonęła po rosyjskim ostrzale. Bać się? Wyjaśniamy</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://oko.press/plyn-lugola-pic-czy-nie-pic-nie-pic-bo-moze-zaszkodzic/</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Płyn Lugola – pić, czy nie pić? Nie pić, bo może zaszkodzić! I nie ma zagrożenia radioaktywną chmurą</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://oko.press/podziemne-zycie-wojennego-lwowa-reportaz/</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Marko ma 5 dni i już 9 razy był w schronie. Podziemne życie wojennego Lwowa. [REPORTAŻ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://oko.press/premier-w-pandemii-nigdy-nie-selekcjonowalismy-pacjentow/</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Premier: W pandemii nie selekcjonowaliśmy pacjentów. OKO.press: Jeśli udało im się dostać do szpitala</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://oko.press/putin-tlumaczy-sie-kobietom-dlaczego-rosja-bombarduje-ukraine-czyzby-zmienial-ton/</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Putin tłumaczy się kobietom, dlaczego Rosja bombarduje Ukrainę. Czyżby zmieniał ton?</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosja-udaje-ze-chce-pozwolic-na-ewakuacje-ukrainskich-cywilow-celem-jest-zlamanie-oporu-spolecznego/</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Rosja udaje, że chce pozwolić na ewakuację ukraińskich cywilów. „Celem jest złamanie oporu społecznego”</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosja-ukraina-haga-mts/</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Rozpoczęło się postępowanie przeciwko Rosji w Trybunale w Hadze. Kreml zignorował pierwsze posiedzenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosjanie-przejeli-cherson-potezne-eksplozje-w-kijowie-dzien-8-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Kolejna runda negocjacji. Ostrzał miast trwa, rosyjski desant zbliża się do Odessy [DZIEŃ 8 NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosjanie-sa-pasywni-w-polu-ale-nadal-biora-na-cel-cywilow-dramat-mariupola-sytuacja-na-froncie/</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Rosjanie są pasywni w polu, ale nadal biorą na cel cywilów. Dramat Mariupola [SYTUACJA NA FRONCIE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosyjskie-fake-newsy-na-falszywych-kontach-miast-na-instagramie/</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Rosyjskie fake newsy szerzono na fałszywych kontach polskich miast na Instagramie</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://oko.press/sedzia-ukrainskiego-sn-z-karabinem-broni-kijowa/</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Sędzia ukraińskiego SN założył mundur i broni Kijowa: „Będę to robił aż do końca” [ROZMOWA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>https://oko.press/specustawa-o-pomocy-uchodzcom-300-zl-na-utrzymanie/</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Analizujemy ustawę o pomocy uchodźcom z Ukrainy: niezłe rozwiązania i wrzutka o bezkarności</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://oko.press/strefa-zakazu-lotow-dlaczego-chce-jej-ukraina-dlaczego-nie-wprowadzi-jej-nato/</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Strefa zakazu lotów – dlaczego chce jej Ukraina, dlaczego nie wprowadzi jej NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>https://oko.press/tag/ukraina/</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Wojna w Ukrainie - Analizy</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>https://oko.press/wojna-ukraina-dzien-13-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Ukraińcy zabili ważnego rosyjskiego generała, UE pozbywa się gazu z Moskwy [DZIEŃ 13. NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>https://oko.press/wstydze-sie-ze-jestem-tchorzem-ale-boje-sie-ze-mnie-zabija-na-demonstracji-andriej-z-moskwy/</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Wstydzę się, że jestem tchórzem. Ale boję się, że mnie zabiją na demonstracji [ANDRIEJ Z MOSKWY]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsokopress.xlsx
+++ b/database/httpsokopress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B565"/>
+  <dimension ref="A1:B596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,378 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>https://oko.press/alarmy-bombowe-w-kijowie-jaroslaw-kaczynski-zaapelowal-o-pokojowa-misje-nato-ukraina-dzien-21-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Atak na schron dla ludności w Mariupolu. Biden o Putinie: zbrodniarz wojenny [UKRAINA. DZIEŃ 21 NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>https://oko.press/bialorus-znow-uderza-migrantami/</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Idziesz do Polski, czy mamy cię wywieźć na wojnę z Ukrainą? Białoruś znów używa migrantów</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>https://oko.press/chaos-w-rosji-propaganda-nie-wie-o-co-chodzi-putinowi/</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Chaos w Rosji. „Propaganda nie wie, o co chodzi Putinowi”</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>https://oko.press/co-nalezy-zapamietac-ze-spotkania-kamali-harris-z-andrzejem-duda-analizujemy/</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Co należy zapamiętać ze spotkania Kamali Harris z Andrzejem Dudą? Analizujemy</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>https://oko.press/czy-bedzie-atak-na-kijow-na-wschodzie-ukrainy-trwaja-pacyfikacje-wsi-sytuacja-na-froncie/</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Czy będzie atak na Kijów? Na wschodzie Ukrainy trwają pacyfikacje wsi [SYTUACJA NA FRONCIE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>https://oko.press/czy-zbliza-sie-porozumienie-pokojowe-ukrainy-i-rosji/</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Czy zbliża się porozumienie pokojowe Ukrainy i Rosji?</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>https://oko.press/gdzie-zamieszkaja-2-mln-uchodzcow-rzad-prywatyzuje-problem/</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Duże miasta pękają w szwach: gdzie zamieszkają uchodźcy? Rząd prywatyzuje problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>https://oko.press/goworit-moskwa-zdenerowany-putin-oglasza-ciezki-kryzys-w-rosji/</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>GOWORIT MOSKWA. Zdenerowany Putin ogłasza ciężki kryzys w Rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>https://oko.press/hrubieszow-nie-nie-spi-bo-pomaga-centrum-pomocy-uchodzcom-z-ukrainy/</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Hrubieszów nie śpi, bo pomaga. Centrum pomocy uchodźcom z Ukrainy</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>https://oko.press/inflacja-marzec-wojna-covid-chiny/</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Chwilowy spadek inflacji, ale wkrótce będzie 10 proc. Euro by nas uratowało? Sprawdzamy</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>https://oko.press/jourova-europa-musi-bronic-dziennikarzy-bedzie-prawo-anty-slapp/</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Jourová: Europa musi bronić dziennikarzy. Będzie prawo anty-SLAPP</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>https://oko.press/kosciol-pomoc-biskupi-wojna-w-ukrainie/</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Kościół pomaga uchodźcom z Ukrainy? Tak, ale bardziej rękami (i portfelami) wiernych niż biskupów</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>https://oko.press/ludzie/hanna-gronkiewicz-waltz</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Hanna Gronkiewicz-Waltz</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>https://oko.press/lwow-zabytki-zabezpieczenie-wojna-w-ukrainie-rosja/</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>„Rzeźby nie zejdą do schronu”. Tak Lwów ratuje zabytki przed wojną [KORESPONDENCJA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>https://oko.press/nato-nas-obroni-sondaz-oko-press/</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>NATO nas obroni – ma nadzieję 72 proc. Ale tylko 22 proc. jest tego pewne [SONDAŻ OKO.press]</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>https://oko.press/nato-w-jugoslawii-i-rosja-w-ukrainie-czym-sie-roznia-te-dwie-wojny-a-moze-interwencje-humanitarne/</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>NATO w Jugosławii i Rosja w Ukrainie – czym się różnią te dwie wojny. A może interwencje humanitarne?</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>https://oko.press/omikron-chiny/</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Pamiętacie o pandemii? Jeszcze się nie skończyła. Sytuacja w Chinach może zachwiać rynkami</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>https://oko.press/pulk-azow-neonazisci-kibole-czy-obroncy-ukrainy-rozmowa/</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Pułk Azow – neonaziści, kibole czy obrońcy Ukrainy? [ROZMOWA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosja-ukraina-mts-srodki-tymczasowe/</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Rosja ma natychmiast wstrzymać operację militarną – zadecydował Międzynarodowy Trybunał Sprawiedliwości w Hadze</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosyjska-machina-wojenna-sie-zaciera-ale-co-to-wlasciwie-znaczy-analiza/</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Rosyjska machina wojenna się zaciera – ale co to właściwie znaczy? [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>https://oko.press/sejm-przyjal-ustawe-o-pomocy-uchodzcom/</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Sejm przyjął ustawę o pomocy uchodźcom z Ukrainy. A PiS przepchnął okrojoną „bezkarność plus”</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>https://oko.press/twoj-1-to-100-naszej-niezaleznosci-przekaz-1-na-oko-press/</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Twój 1% to 100% naszej niezależności. Przekaż 1% na OKO.press</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>https://oko.press/ukraincy-przechodza-do-kontrofensywy-trwa-wazna-bitwa-pod-kijowem-sytuacja-na-froncie/</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Ukraińcy przechodzą do kontrofensywy. Trwa ważna bitwa pod Kijowem. [SYTUACJA NA FRONCIE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>https://oko.press/walczyc-za-ukraine-jak-uzbroic-polskiego-ochotnika/</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Sławomir jedzie walczyć za Ukrainę. Kto wyposaży polskiego ochotnika?</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>https://oko.press/wszystkie-absurdy-ustawy-o-uchodzcach/</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Ustawa o uchodźcach: plusy, minusy, absurdy. Niektórzy wrócą do Ukrainy, by dostać PESEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>https://oko.press/wypowiedzi/hgw-o-inflacji/</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Gdybyśmy przyjęli wcześniej euro jak Litwa, Łotwa, Estonia i Słowacja to inflacja byłaby o połowę niższa, kredyty tańsze i paliwo też a najważniejsze mniej stresu dziś</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>https://oko.press/zmarla-ciezarna-ze-slynnego-zdjecia-ze-szpitala-w-mariupolu-kolejna-runda-negocjacji-pokojowychukraina-dzien-19-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Zmarła ciężarna ze słynnego zdjęcia ze szpitala w Mariupolu. Negocjacje pokojowe wstrzymane do wtorku [UKRAINA. DZIEŃ 19. NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>https://oko.press/autor/iga-dzieciuchowicz/</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Iga Dzieciuchowicz</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>https://oko.press/chiny-wobec-wojny-siedza-na-gorze-i-obserwuja-walczace-tygrysy-co-zrobia-analiza/</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Chiny wobec wojny: „siedzą na górze i obserwują walczące tygrysy”. Co zrobią? [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>https://oko.press/glosy-z-ukrainy-elon-musk-wyzywa-putina-na-solo-a-3-4-ukraincow-twierdzi-ze-idzie-dobrze/</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>GŁOSY Z UKRAINY. Elon Musk wyzywa Putina na solo. A 3/4 Ukraińców twierdzi, że idzie dobrze</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>https://oko.press/zelenski-rosja-stala-sie-panstwem-terrorystycznym-ukraina-dzien-22-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Zełenski: Rosja stała się państwem terrorystycznym. Wielka awaria polskiej kolei [UKRAINA. DZIEŃ 22 NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsokopress.xlsx
+++ b/database/httpsokopress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B596"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7453,6 +7453,1158 @@
         </is>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="#panel1"</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Jednorazowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="#panel2"</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Co miesiąc</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="#wyloguj"</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Wyloguj</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://news.google.com/publications/CAAiEGYSkp3as7HPQ8kTGP1yxGQqFAgKIhBmEpKd2rOxz0PJExj9csRk?hl=pl&amp;amp;gl=PL&amp;amp;ceid=PL%3Apl"</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Po przejściu do serwisu Google Wiadomości kliknij</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press"</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>OKO.press</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/"</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>zobacz więcej</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/1procent"</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Przekaż 1 % na niezależne dziennikarstwo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/1procent/"</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Przekaż 1% podatku</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/63-uchodzcow-z-ukrainy-w-folwarku-kolo-mszczonowa/"</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>63 uchodźców z Ukrainy w Folwarku koło Mszczonowa. Ludzie pomagają, nawet Elon Musk</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/about-oko-press/"</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/archiwum-feed/"</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Kanał RSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/autor/anton-ambroziak/"</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Anton Ambroziak</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/autor/jakub_szymczak/"</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Jakub Szymczak</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/autor/julia-theus/"</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Julia Theus</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/autor/krzysztof-boczek/"</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Krzysztof Boczek</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/autor/maciej-grzenkowicz/"</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Maciej Grzenkowicz</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/caritas-nieruchomosci-rybaki-skarbowka-turysci/"</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Caritas dostała ośrodek na cele charytatywne, ale go wynajmuje. Eksperci: powinna go zwrócić</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/ciala-rozstrzelanych-cywilow-ze-zwiazanymi-rekami-masowe-groby-dowody-zbrodni-wojennych-w-buczy/"</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Ciała rozstrzelanych cywilów ze związanymi rękami, masowe groby. Dowody zbrodni wojennych w Buczy</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/co-wiemy-o-mordach-w-buczy/"</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Co wiemy o mordach w Buczy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/co-zrobila-polska-bym-ja-pokochal-lekcje-ahmeda-z-polskiego-lasu-reportaz-z-granicy-bialoruskiej/"</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Co zrobiła Polska, bym ją pokochał? Lekcje Ahmeda z polskiego lasu [Reportaż z granicy białoruskiej]</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/czy-holding-spozywczy-sasina-obnizy-ceny-zywnosci-w-polsce/"</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Czy holding spożywczy Sasina obniży ceny żywności w Polsce?</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/dostepnosc-najmu-spada-ceny-wariuja-bez-interwencji-panstwa-polsce-grozi-fala-bezdomnosci/"</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Dostępność najmu spada, ceny wariują. Bez interwencji państwa Polsce grozi fala bezdomności</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/glosy-z-ukrainy-rosjanie-zlapali-ukrainska-dziennikarke-wiezienie-dla-kobiet-albo-baza-dagestanczykow/"</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>GŁOSY Z UKRAINY. Rosjanie złapali ukraińską dziennikarkę: „Więzienie dla kobiet albo baza Dagestańczyków”</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/gowrit-moskwa-jak-naklamac-o-masakrze-w-buczy/"</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>GOWORIT MOSKWA: Jak nakłamać o masakrze w Buczy</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/instytut-pileckiego-dotacje/"</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Zabytkowy kompleks w Szwajcarii za 120 mln zł dla kontrowersyjnego instytutu [UJAWNIAMY]</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/jaka-bron-dokladnie-otrzymuje-ukraina-z-zachodu-i-jaka-jeszcze-moglaby-dostac/"</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Jaką broń dokładnie otrzymuje Ukraina z Zachodu i jaką jeszcze mogłaby dostać?</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/analizy-sondaze/"</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Analizy i sondaże</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/multimedia/"</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Multimedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/multimedia/wideo/"</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Wideo</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/podcasty/"</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Podcasty</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/prawda-czy-falsz/"</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Prawda czy fałsz?</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/reportaz/"</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Reportaże</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/sledztwa/"</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Śledztwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kategoria/wydarzenia/"</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Wydarzenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/konto/?activePanel=abonament"</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>TUTAJ&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kosciol-pomoc-biskupi-wojna-w-ukrainie/"</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Kościół pomaga uchodźcom z Ukrainy? Tak, ale bardziej rękami (i portfelami) wiernych niż biskupów</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kowalczyk-swiatlo-zycie-oaza-dotacje/"</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Oaza wicepremiera Kowalczyka. 23 mln złotych dla katolickiego Ruchu Światło-Życie [TYLKO U NAS]</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/kto-zmarznie-w-polsce-rzad-chce-embarga-na-ekogroszek-z-rosji/"</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Kto zmarznie w Polsce? Rząd chce embarga na ekogroszek z Rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/legion-miedzynarodowy-w-ukrainie-marzyciele-weterani-i-poszukiwacze-adrenaliny/"</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Legion Międzynarodowy w Ukrainie – marzyciele, weterani i poszukiwacze adrenaliny [REPORTAŻ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/ludzie/tomasz-grodzki"</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Tomasz Grodzki</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/na-krawedzi-dlaczego-dzieci-i-nastolatki-nie-chca-zyc-rozmowa-z-suicydolozka/"</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Na krawędzi. Dlaczego dzieci i nastolatki nie chcą żyć? [ROZMOWA Z SUICYDOLOŻKĄ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/nato-w-jugoslawii-i-rosja-w-ukrainie-czym-sie-roznia-te-dwie-wojny-a-moze-interwencje-humanitarne/"</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>NATO w Jugosławii i Rosja w Ukrainie – czym się różnią te dwie wojny. A może interwencje humanitarne?</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/nie-rozumiemy-co-sie-stalo-smutny-wieczor-wegierskiej-opozycji-relacja-z-budapesztu/"</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>„Nie rozumiemy, co się stało”. Smutny wieczór węgierskiej opozycji [RELACJA Z BUDAPESZTU]</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/o-nas/"</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>O nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/pilne-wybory-na-wegrzech-czastkowe-wyniki-znow-wygral-fidesz-i-viktor-orban/"</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>PILNE! Wybory na Węgrzech. Cząstkowe wyniki: znów wygrał Fidesz i Viktor Orbán [OKO.press z Budapesztu]</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/plyn-lugola-pic-czy-nie-pic-nie-pic-bo-moze-zaszkodzic/"</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Płyn Lugola – pić, czy nie pić? Nie pić, bo może zaszkodzić! I nie ma zagrożenia radioaktywną chmurą</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/polityka-prywatnosci"</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Polityką prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/polityka-prywatnosci/"</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Polityka Prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/putin-gra-va-banque-od-jutra-gaz-za-ruble-albo-zakrecony-kurek-sam-na-siebie-kreci-bicz/"</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Putin gra va banque: od jutra gaz za ruble albo zakręcony kurek. Sam na siebie kręci bicz</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/regulamin/"</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Regulamin</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/rzad-canceluje-polski-lad-podatku-zaplacimy-w-tym-roku/"</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Rząd canceluje Polski Ład. To w końcu ile podatku zapłacimy w tym roku?</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/rzad-oglasza-nowy-plan-klimatyczny/"</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Rząd ogłasza nowy plan transformacji. Pozytywny zwrot, ale pilnie potrzeba ustaw [ANALIZA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/sygnalisci/"</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Sygnaliści</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/afery/"</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Afery</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/edukacja/"</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Edukacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/ekologia/"</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Ekologia</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/gospodarka/"</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Gospodarka</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/historia/"</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Historia</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/kobiety/"</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Kobiety</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/kosciol/"</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Kościół</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/kultura/"</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Kultura</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/lgbt/"</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>LGBT+</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/media/"</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/nacjonalizm/"</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Nacjonalizm</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/ngo/"</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>NGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/niepelnosprawnosc/"</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Niepełnosprawność</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/opozycja/"</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Opozycja</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/policja-i-sluzby/"</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Policja i służby</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/polityka-spoleczna/"</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Polityka społeczna</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/polityka-zagraniczna/"</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Świat</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/prawa-czlowieka/"</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Prawa człowieka</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/prawa-zwierzat/"</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Prawa zwierząt</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/propaganda/"</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/protesty/"</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Protesty</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/sadownictwo/"</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Sądownictwo</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/uchodzcy-imigranci/"</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Uchodźcy, imigranci</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/wladza/"</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Władza</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/wybory/"</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Wybory</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag-rzeczowy/zdrowie/"</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Zdrowie</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/tag/ukraina/"</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Wojna w Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/to-jest-tez-nasza-wojna-poeta-i-muzyk-walcza-o-ukraine-w-legionie-gruzinskim-reportaz/"</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>To jest też nasza wojna. Poeta i muzyk walczą o Ukrainę w Legionie Gruzińskim [Reportaż]</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/ukrainscy-uchodzcy-w-europie-jak-kraje-wspolnoty-pomagaja-ofiarom-rosyjskiej-agresji/"</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Ukraińscy uchodźcy w Europie. Jak kraje Wspólnoty pomagają ofiarom rosyjskiej agresji?</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/wesprzyj"</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>WSPIERAM &amp;gt;&amp;gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/wesprzyj/"</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Wspieraj OKO</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/wesprzyj/abonament/"</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Wspieraj OKO</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/wypowiedzi/grodzki-o-weglu/"</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Rząd importuje rosyjski węgiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/zaloguj"</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Abonament na wolność słowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/zaloguj/"</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Twoje konto</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/zasady-etyki-dziennikarskiej/"</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Zasady etyki dziennikarskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/zelenski-o-rosyjskich-zolnierzach-rzeznicy-mordercy-gwalciciele-odessa-pod-ostrzalemdzien-40-na-zywo/"</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Zełenski o rosyjskich żołnierzach: „Rzeźnicy, mordercy, gwałciciele”. Odessa pod ostrzałem [DZIEŃ 40 NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://oko.press/zylam-jak-biala-wrona-no-dobra-koniec-tajemnicy-mowi-sanitariuszka-z-pulku-strzelcow-pod-zaporozem/"</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Żyłam jak biała wrona. No dobra, koniec tajemnicy – mówi sanitariuszka z pułku strzelców pod Zaporożem</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://open.spotify.com/show/5VT2reIZuuM4zDLYqluoXL"</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://twitter.com/oko_press"</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://www.facebook.com/oko.press/"</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://www.instagram.com/oko.press/"</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://www.linkedin.com/company/oko-press/"</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>https://oko.press/href="https://www.youtube.com/channel/UCgL0f77U3iEPSSU-Mv5yV5g"</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsokopress.xlsx
+++ b/database/httpsokopress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8605,6 +8605,390 @@
       </c>
       <c r="B694" t="inlineStr"/>
     </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>https://oko.press/blizej-do-moskwy-niz-rygi-polska-trzeci-raz-z-rzedu-z-tytulem-homofoba-unii-europejskiej/</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Bliżej do Moskwy niż Rygi. Polska trzeci raz z rzędu z tytułem homofoba Unii Europejskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>https://oko.press/co-sie-dzieje-z-obroncami-z-mariupolawywiezli-ich-w-koszmarne-miejsce/</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Co się dzieje z obrońcami z Mariupola? „Wywieźli ich w koszmarne miejsce”</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>https://oko.press/czarnek-broni-polskosci-szkol-krzywdzac-ukrainskie/</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Czarnek broni „polskości szkół”, krzywdząc ukraińskie dzieci. „Nie mogą zajmować miejsc…”</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>https://oko.press/czarnek-polska-szkola-nie-dla-ukrainskich-dzieci-takie-same-swiadectwa-i-egzamin-po-polsku/</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Czarnek: polska szkoła nie dla ukraińskich dzieci. Takie same świadectwa i egzamin po polsku</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>https://oko.press/czy-pis-nabierze-ursule-von-der-leyen/</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Czy PiS nabierze Ursulę von der Leyen?</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>https://oko.press/eurowizja-polskie-jury-zdyskwalifikowane/</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Polskie jury na Eurowizji zdyskwalifikowane. Punkty za ekspertów TVP wybrał automat</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>https://oko.press/goworit-moskwa-zwyciezylismy-azowstal/</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>GOWORIT MOSKWA: Zwyciężyliśmy. Azowstal nasza, choć obrońcy wysadzili magazyny w powietrze i polegli</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>https://oko.press/homilia-szefa-gabinetu-czarnka-do-nauczycieli-nadzieja-w-tym-ze-mamy-czas-zmartwychwstania-panskiego/</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Homilia szefa gabinetu Czarnka do nauczycieli: Nadzieja w tym, że mamy czas Zmartwychwstania Pańskiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>https://oko.press/jest-wyrok-za-homoszczucie-skazany-kierowca-homofobusa/</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Jest wyrok karny za homofobiczne szczucie na ulicach. Ale skazany został tylko kierowca</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>https://oko.press/kategoria/prawa-osob-lgbt-w-polsce/</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Prawa osób LGBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>https://oko.press/ludzie/piotr-zgorzelski</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Piotr Zgorzelski</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>https://oko.press/lukasz-piebiak-doktorem-nauk-prawnych-relacja/</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Łukasz Piebiak „wykazał się naukową odwagą i pewnością” i został doktorem nauk prawnych [RELACJA]</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>https://oko.press/mlodzi-do-macrona-i-von-der-leyen-nie-rozczarujcie-nas/</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Młodzi do Macrona i von der Leyen: „Nie rozczarujcie nas. Pokazaliśmy wam plan prawdziwej zmiany Unii”</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>https://oko.press/morawiecki-o-konstytucji-3-maja-wykluczala-niewolnictwo-nie-zostawila-poddanstwo-i-panszczyzne/</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Morawiecki o Konstytucji 3 Maja: „wykluczała niewolnictwo”. Nie, zostawiła poddaństwo i pańszczyznę</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>https://oko.press/muzeum-zolnierzy-wykletych-ostroleka/</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Ekipa z „Ostrołęki C” zbudowała Muzeum Żołnierzy Wyklętych. Prawie 60 mln zł dał rząd PiS</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>https://oko.press/najzimniejsza-noc-w-zyciu-spotkanie-autorskie-z-szymonem-opryszkiem/</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>„Najzimniejsza noc w życiu”. Spotkanie autorskie z Szymonem Opryszkiem</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>https://oko.press/plakietka-press-nie-chroni-historie-dziennikarzy-ktorzy-stracili-zycie-na-wojnie-w-ukrainie/</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Plakietka “PRESS” nie chroni. Historie dziennikarzy, którzy stracili życie na wojnie w Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>https://oko.press/pozwala-mnie-kaja-godek-ale-to-my-jestesmy-ofiarami/</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Pozwała mnie Kaja Godek. Ale to my jesteśmy ofiarami</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>https://oko.press/prochasko-wojna-katharsis-dla-ukrainy-rozmowa-opryszka/</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Taras Prochaśko, pisarz i botanik: Nie chciałem wojny, ale to katharsis dla Ukrainy. [Rozmowa Opryszka]</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>https://oko.press/rodzina-tylko-z-bogiem-i-bez-aborcji-konkurs-ministerstwa-rodziny/</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Rodzina tylko z Bogiem i bez aborcji. Agenda religijna w konkursie ministerstwa rodziny [PRZEŚWIETLAMY]</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosja-ukraina-84-dzien-na-zywo/</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Obrońcy Azowstali w niewoli. Rosja użyła nowej broni laserowej. Wojna w Ukrainie [DZIEŃ 85. NA ŻYWO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>https://oko.press/rosjanom-bitwa-o-donbas-zamienila-sie-w-bitwe-o-obwod-luganski-sytuacja-na-froncie/</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Rosjanom „Bitwa o Donbas” zamieniła się w „Bitwę o obwód ługański” [SYTUACJA NA FRONCIE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>https://oko.press/sedzia-zurek-wygrywa-z-prokuratura-krajowa-i-prezeska-od-ziobry-nie-symulowal-wypadku-w-pracy/</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Sędzia Żurek wygrywa z Prokuraturą Krajową i prezeską od Ziobry. Nie symulował wypadku w pracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>https://oko.press/siatka-malej-emi-ministerstwo-ma-polityke-medialna-do-dupy/</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Siatka Małej Emi. „Ministerstwo ma politykę medialną do dupy. Ty sama robisz więcej niż ten ich spec”</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>https://oko.press/sledztwo-onetu-i-oko-press-jak-piebiak-szukal-hakow-na-sedziow/</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Śledztwo Onetu i OKO.press. Jak Piebiak szukał haków na sędziów w zielonych teczkach. Wskazywał „szkodników”</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>https://oko.press/tajemnica-poparcia-pis-w-sondazu-oko-press/</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Tajemnica poparcia dla PiS w sondażu OKO.press. Ale nadzieja ich wyborców kruszeje</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>https://oko.press/tatiana-z-charkowa-ratuje-koty/</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Tatiana z Charkowa ratuje koty. „Codziennie siadam na progu mieszkania i się o nie modlę”</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>https://oko.press/tecze-widac-ale-aktywnosc-spadla-czy-minister-czarnek-wystraszyl-uczniow-i-uczennice-lgbtq/</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Tęczę widać, ale aktywność spadła. Czy minister Czarnek wystraszył uczniów i uczennice LGBTQ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>https://oko.press/tvp-odpowiada-na-dyskwalifikacje-jury-podczas-eurowizji-i-podaje-nazwiska-jurorow/</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>TVP odpowiada na dyskwalifikację jury podczas Eurowizji. I podaje nazwiska jurorów</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>https://oko.press/ukrainskie-dzieci-potrzeba-integracji-a-jest-asymilacja-na-sile/</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Ukraińskie dzieci. Potrzeba integracji, a jest asymilacja na siłę. Jak to zrobić inaczej?</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>https://oko.press/wojna-pandemia-matura-wszystko-jest-powykrecane-mowia-maturzysci/</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Wojna – pandemia – matura. „Wszystko jest powykręcane” [MÓWIĄ MATURZYŚCI]</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>https://oko.press/wypowiedzi/zgorzelski-o-kredytach-i-bankach/</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>To jest taka sytuacja, których suma pokazuje, że jest bardzo ciężko w polskich domach, bo raty wzrosły, a bankom wręcz przeciwnie – poprawiło się</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
